--- a/data/trans_orig/P44C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Dificultad-trans_orig.xlsx
@@ -790,19 +790,19 @@
         <v>7204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3060</v>
+        <v>3138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12097</v>
+        <v>12505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3086595500746035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1310995946910518</v>
+        <v>0.1344683953412698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5183002614310193</v>
+        <v>0.535779932264473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -811,19 +811,19 @@
         <v>14593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9286</v>
+        <v>8867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20849</v>
+        <v>20603</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4106025071733832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2612718345409128</v>
+        <v>0.2494896511243742</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5866346684456968</v>
+        <v>0.5797030740569339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -832,19 +832,19 @@
         <v>21797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14276</v>
+        <v>14667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29296</v>
+        <v>29963</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3701935690579958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2424614885296527</v>
+        <v>0.2491019534084829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4975623573323037</v>
+        <v>0.50888770676141</v>
       </c>
     </row>
     <row r="6">
@@ -861,19 +861,19 @@
         <v>10296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5769</v>
+        <v>6021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15554</v>
+        <v>15721</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4411388765299653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2471695273115824</v>
+        <v>0.2579690527407535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.666437313683397</v>
+        <v>0.6736015392724495</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -882,19 +882,19 @@
         <v>16769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11323</v>
+        <v>10567</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23012</v>
+        <v>23094</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4718431147375226</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3185895172638841</v>
+        <v>0.2973132909284858</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.647488329554031</v>
+        <v>0.6497922502506042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -903,19 +903,19 @@
         <v>27065</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19587</v>
+        <v>18744</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34977</v>
+        <v>34563</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4596723312236888</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3326595679778768</v>
+        <v>0.3183504009637377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5940425175836864</v>
+        <v>0.5870187369804463</v>
       </c>
     </row>
     <row r="7">
@@ -932,19 +932,19 @@
         <v>5839</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2224</v>
+        <v>2196</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11260</v>
+        <v>11210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2502015733954311</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09528748515494319</v>
+        <v>0.0941124240472509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4824464820835221</v>
+        <v>0.4803201150050395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -953,19 +953,19 @@
         <v>4178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1051</v>
+        <v>1101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9640</v>
+        <v>10403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1175543780890943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02958345263959462</v>
+        <v>0.03097590381771554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2712319980847579</v>
+        <v>0.2927153209454095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -974,19 +974,19 @@
         <v>10017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5309</v>
+        <v>4722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17538</v>
+        <v>16692</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1701340997183154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09017040854178275</v>
+        <v>0.08019232414794232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2978609120819048</v>
+        <v>0.2835047744841183</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4145</v>
+        <v>5317</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02644731030334571</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1151011224840226</v>
+        <v>0.1476420801663765</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1099,19 +1099,19 @@
         <v>3913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9844</v>
+        <v>9493</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1236286662379198</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03088645194432889</v>
+        <v>0.03101560185029047</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3110222321802151</v>
+        <v>0.2999186423939948</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1120,19 +1120,19 @@
         <v>4866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12702</v>
+        <v>11292</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07190456556420627</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01606621348981983</v>
+        <v>0.01554796901502626</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1877122648216324</v>
+        <v>0.1668799497454364</v>
       </c>
     </row>
     <row r="10">
@@ -1149,19 +1149,19 @@
         <v>9698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3735</v>
+        <v>3434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17374</v>
+        <v>17890</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2692845834196059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1037041195531402</v>
+        <v>0.09534845825156243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4824159044709695</v>
+        <v>0.4967310939872267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1170,19 +1170,19 @@
         <v>14896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9377</v>
+        <v>9252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20162</v>
+        <v>20806</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.470618413615175</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2962415627745962</v>
+        <v>0.2923192113425653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6369745644805829</v>
+        <v>0.6573293824327784</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1191,19 +1191,19 @@
         <v>24594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16712</v>
+        <v>16358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34520</v>
+        <v>33429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3634598830316862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2469739743496867</v>
+        <v>0.2417481496627394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.510145780337853</v>
+        <v>0.4940288232358617</v>
       </c>
     </row>
     <row r="11">
@@ -1220,19 +1220,19 @@
         <v>22107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15008</v>
+        <v>14482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28051</v>
+        <v>28138</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6138350225404485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4167178506854712</v>
+        <v>0.4021040105073763</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7788659313186195</v>
+        <v>0.7812887401535212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>8659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3971</v>
+        <v>4233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14477</v>
+        <v>14693</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2735632060849739</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1254734326020611</v>
+        <v>0.1337205154528566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4573721068411922</v>
+        <v>0.4642105578166822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1262,19 +1262,19 @@
         <v>30766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21619</v>
+        <v>22580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39878</v>
+        <v>40316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4546705133612734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3194897576193739</v>
+        <v>0.3336993012618572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5893247051930863</v>
+        <v>0.5957942113299655</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>3257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8585</v>
+        <v>8273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0904330837365999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02687278297432304</v>
+        <v>0.02708757426380508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2383718750053996</v>
+        <v>0.2297031131079356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1312,19 +1312,19 @@
         <v>4184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8656</v>
+        <v>8829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1321897140619314</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03268338346833057</v>
+        <v>0.03285687423302632</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2734803699715803</v>
+        <v>0.2789441064495497</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1333,19 +1333,19 @@
         <v>7441</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3176</v>
+        <v>3236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15303</v>
+        <v>14047</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1099650380428341</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04693733942540694</v>
+        <v>0.04782167369434891</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2261487412465231</v>
+        <v>0.2075960878600233</v>
       </c>
     </row>
     <row r="13">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5280</v>
+        <v>4835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04697478371316717</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2220009634984165</v>
+        <v>0.2033106911613778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5527</v>
+        <v>4559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02073765517775256</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1025967702460276</v>
+        <v>0.08463350075848031</v>
       </c>
     </row>
     <row r="15">
@@ -1500,19 +1500,19 @@
         <v>9190</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4072</v>
+        <v>4548</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14389</v>
+        <v>14887</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3054085138460664</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1353384419892529</v>
+        <v>0.1511606411034743</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4782116874391101</v>
+        <v>0.4947421192197325</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1521,19 +1521,19 @@
         <v>6110</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2166</v>
+        <v>2179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12074</v>
+        <v>11252</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2569221048456049</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09105738774414605</v>
+        <v>0.09160954922314343</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5076550494849013</v>
+        <v>0.473094061991635</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -1542,19 +1542,19 @@
         <v>15300</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9350</v>
+        <v>9288</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22862</v>
+        <v>22952</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2840035311898673</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1735603472502921</v>
+        <v>0.1724004904313674</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4243598399387203</v>
+        <v>0.4260330120395228</v>
       </c>
     </row>
     <row r="16">
@@ -1571,19 +1571,19 @@
         <v>18803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13356</v>
+        <v>13747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23840</v>
+        <v>23946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6249010475981299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4438665208076918</v>
+        <v>0.4568465661083475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7922888904312766</v>
+        <v>0.7957961762407626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1592,19 +1592,19 @@
         <v>10224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5331</v>
+        <v>5474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15713</v>
+        <v>15779</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4299045838363612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2241692979636833</v>
+        <v>0.230161123341772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6606773495148791</v>
+        <v>0.6634483916655284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1613,19 +1613,19 @@
         <v>29028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20632</v>
+        <v>21272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36518</v>
+        <v>35981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5388172148110679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3829689632666423</v>
+        <v>0.3948632986814242</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6778455760075032</v>
+        <v>0.6678840569822636</v>
       </c>
     </row>
     <row r="17">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6594</v>
+        <v>6565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06969043855580369</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2191509133626322</v>
+        <v>0.218173743893633</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1663,19 +1663,19 @@
         <v>6331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2126</v>
+        <v>2176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10988</v>
+        <v>11578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2661985276048668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08938402511587533</v>
+        <v>0.09148177795738718</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4620311232055673</v>
+        <v>0.4868341053715997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1684,19 +1684,19 @@
         <v>8428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4214</v>
+        <v>4090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15700</v>
+        <v>15120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1564415988213122</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07822752619985901</v>
+        <v>0.07591735878703444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2914251995231303</v>
+        <v>0.280656405863887</v>
       </c>
     </row>
     <row r="18">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11444</v>
+        <v>10968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.201562788159663</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5168421033499356</v>
+        <v>0.495353759341256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6748</v>
+        <v>5864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06891681940895009</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3535418203705966</v>
+        <v>0.3072377863509004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1830,19 +1830,19 @@
         <v>5779</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14285</v>
+        <v>13933</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1401562842159106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0328701807603274</v>
+        <v>0.03234254657860029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3464739794089042</v>
+        <v>0.3379418360833336</v>
       </c>
     </row>
     <row r="20">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7354</v>
+        <v>6181</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09259701015543134</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3321478667904901</v>
+        <v>0.2791369702268578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5182</v>
+        <v>5906</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05646686388253352</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2715334073948049</v>
+        <v>0.3094442306912278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1901,19 +1901,19 @@
         <v>3128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8572</v>
+        <v>7707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07587108934162504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.023284246149096</v>
+        <v>0.02353604349012184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2079190508561162</v>
+        <v>0.1869201197902731</v>
       </c>
     </row>
     <row r="21">
@@ -1930,19 +1930,19 @@
         <v>11449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5890</v>
+        <v>5564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17223</v>
+        <v>16524</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5170640467883534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2660283848282674</v>
+        <v>0.2512704783115584</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7778453633346675</v>
+        <v>0.7462523121011226</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1951,19 +1951,19 @@
         <v>9892</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4765</v>
+        <v>5038</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14587</v>
+        <v>14612</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5182998982389664</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2496756206974147</v>
+        <v>0.2639722311365529</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7642936328545139</v>
+        <v>0.7655739476647149</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -1972,19 +1972,19 @@
         <v>21342</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14779</v>
+        <v>14157</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29160</v>
+        <v>29369</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5176361660746814</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3584553556284977</v>
+        <v>0.3433669959019536</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7072754706395149</v>
+        <v>0.7123461111675771</v>
       </c>
     </row>
     <row r="22">
@@ -2001,19 +2001,19 @@
         <v>4180</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1091</v>
+        <v>976</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9418</v>
+        <v>9377</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1887761548965523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04928721825480998</v>
+        <v>0.04410077080803579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4253498571426796</v>
+        <v>0.4234840238840487</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2022,19 +2022,19 @@
         <v>6801</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2399</v>
+        <v>2917</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12071</v>
+        <v>12286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3563164184695501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1256742318242464</v>
+        <v>0.1528209493027112</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6324540620832008</v>
+        <v>0.6437367876702293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2043,19 +2043,19 @@
         <v>10981</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5219</v>
+        <v>5315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18470</v>
+        <v>18349</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2663364603677829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1265874556090382</v>
+        <v>0.1289041446782656</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4479867717782154</v>
+        <v>0.4450387393090279</v>
       </c>
     </row>
     <row r="23">
@@ -2147,19 +2147,19 @@
         <v>5416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2168,19 +2168,19 @@
         <v>6346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2194</v>
+        <v>2209</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14327</v>
+        <v>15225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05765549173291993</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01993298021714471</v>
+        <v>0.02007254800606035</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1301774627071553</v>
+        <v>0.1383293118593171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2189,19 +2189,19 @@
         <v>11761</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5133</v>
+        <v>4910</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22234</v>
+        <v>21849</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05306266293323345</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02316043944353852</v>
+        <v>0.02215046036144153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1003124197256138</v>
+        <v>0.09857389133095985</v>
       </c>
     </row>
     <row r="25">
@@ -2218,19 +2218,19 @@
         <v>28142</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2239,19 +2239,19 @@
         <v>36677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27356</v>
+        <v>27014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46931</v>
+        <v>46762</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.333241493420016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2485554371718362</v>
+        <v>0.2454466848553366</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4264085285447496</v>
+        <v>0.4248774927575187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2260,19 +2260,19 @@
         <v>64819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51019</v>
+        <v>51364</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78641</v>
+        <v>81623</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924421088008406</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2301819912727269</v>
+        <v>0.23173649582895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3548010393167533</v>
+        <v>0.368257303365484</v>
       </c>
     </row>
     <row r="26">
@@ -2289,19 +2289,19 @@
         <v>62656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2310,19 +2310,19 @@
         <v>45545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34712</v>
+        <v>35647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56207</v>
+        <v>57392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4138148096110622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3153884641516315</v>
+        <v>0.3238881036954412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5106870679515352</v>
+        <v>0.5214578864905217</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2331,19 +2331,19 @@
         <v>108201</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91941</v>
+        <v>91031</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122912</v>
+        <v>122770</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4881637429268184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4148068757289149</v>
+        <v>0.4106998187555115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5545368045483098</v>
+        <v>0.5538979737137327</v>
       </c>
     </row>
     <row r="27">
@@ -2360,19 +2360,19 @@
         <v>15373</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -2381,19 +2381,19 @@
         <v>21494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13747</v>
+        <v>13660</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31488</v>
+        <v>30324</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1952882052360018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1249041314448983</v>
+        <v>0.1241087210604253</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2860982355008986</v>
+        <v>0.275518614715637</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>33</v>
@@ -2402,19 +2402,19 @@
         <v>36867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26703</v>
+        <v>26121</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50530</v>
+        <v>49884</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1663314853391075</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1204725872855083</v>
+        <v>0.1178509105383218</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2279733334521715</v>
+        <v>0.2250580971153032</v>
       </c>
     </row>
     <row r="28">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5013</v>
+        <v>4209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02279645599521483</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1155396784158232</v>
+        <v>0.09702011351723382</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2767,19 +2767,19 @@
         <v>3394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8387</v>
+        <v>8416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1005618305271508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03192928904421997</v>
+        <v>0.03163165331355447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2484962204273212</v>
+        <v>0.2493515485826607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2788,19 +2788,19 @@
         <v>4383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10470</v>
+        <v>10318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05682305922781654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01465307288661236</v>
+        <v>0.01453833835959133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1357334729983788</v>
+        <v>0.1337673674812691</v>
       </c>
     </row>
     <row r="5">
@@ -2817,19 +2817,19 @@
         <v>9409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4679</v>
+        <v>4606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16354</v>
+        <v>16370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2168725809159164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1078596284509673</v>
+        <v>0.1061658273903821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3769620815555176</v>
+        <v>0.3773293830704492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2838,19 +2838,19 @@
         <v>17399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11124</v>
+        <v>10584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23510</v>
+        <v>23998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5155160865340767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3295977550175341</v>
+        <v>0.3135860986630469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6965792592528383</v>
+        <v>0.7110629282567216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -2859,19 +2859,19 @@
         <v>26808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19150</v>
+        <v>19238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36376</v>
+        <v>36052</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3475454431611724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2482640991854198</v>
+        <v>0.2494085636182411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4715907588278792</v>
+        <v>0.4673907876185113</v>
       </c>
     </row>
     <row r="6">
@@ -2888,19 +2888,19 @@
         <v>24703</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17543</v>
+        <v>17660</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30972</v>
+        <v>31369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5694019526393428</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4043569250715045</v>
+        <v>0.4070510206329494</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7139092798656328</v>
+        <v>0.7230551249225109</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2909,19 +2909,19 @@
         <v>12957</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6932</v>
+        <v>6616</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19415</v>
+        <v>19751</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3839220829387726</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2053844508656267</v>
+        <v>0.1960383263934405</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.575259476360769</v>
+        <v>0.5852132196196194</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -2930,19 +2930,19 @@
         <v>37660</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29098</v>
+        <v>28779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46595</v>
+        <v>46783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4882443684069911</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3772331283664579</v>
+        <v>0.3730998995728798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6040816762430617</v>
+        <v>0.6065155135590118</v>
       </c>
     </row>
     <row r="7">
@@ -2959,19 +2959,19 @@
         <v>8283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3912</v>
+        <v>3570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15748</v>
+        <v>15207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.190929010449526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09016527515252191</v>
+        <v>0.08228654991747586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3629980014673785</v>
+        <v>0.3505162215255368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2993,19 +2993,19 @@
         <v>8283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4160</v>
+        <v>3380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16205</v>
+        <v>14511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.10738712920402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05392594544462821</v>
+        <v>0.04381368799426409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2100837467623494</v>
+        <v>0.1881256381831599</v>
       </c>
     </row>
     <row r="8">
@@ -3097,19 +3097,19 @@
         <v>3111</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8105</v>
+        <v>8483</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07577375183529741</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02381711700322724</v>
+        <v>0.02405170554555348</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1974274841268883</v>
+        <v>0.206642449017922</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7246</v>
+        <v>6267</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03593513949095488</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.21112683193344</v>
+        <v>0.182618255011008</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3139,19 +3139,19 @@
         <v>4344</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1064</v>
+        <v>1087</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9500</v>
+        <v>11578</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05763397378450926</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01411176632789979</v>
+        <v>0.01442791434099061</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.126044088799985</v>
+        <v>0.1536106129762091</v>
       </c>
     </row>
     <row r="10">
@@ -3168,19 +3168,19 @@
         <v>8167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4038</v>
+        <v>3633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14466</v>
+        <v>14622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1989386430516873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09835852723407207</v>
+        <v>0.08850484062081623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3523718034277537</v>
+        <v>0.3561690724672807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3189,19 +3189,19 @@
         <v>4376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1129</v>
+        <v>1041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10195</v>
+        <v>9962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1275113242189218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03290633254026045</v>
+        <v>0.03033327715153923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2970710407354828</v>
+        <v>0.2902657807117585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3210,19 +3210,19 @@
         <v>12543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7187</v>
+        <v>7089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19710</v>
+        <v>19979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1664155295659525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09535173236200781</v>
+        <v>0.09404884307379781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2614937485165736</v>
+        <v>0.2650682619807504</v>
       </c>
     </row>
     <row r="11">
@@ -3239,19 +3239,19 @@
         <v>23464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16879</v>
+        <v>17108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29510</v>
+        <v>29733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5715640529495752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.411145205882225</v>
+        <v>0.4167183426480285</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7188213726874702</v>
+        <v>0.7242504766319189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -3260,19 +3260,19 @@
         <v>23241</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16384</v>
+        <v>16529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28545</v>
+        <v>28608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6771746536559051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4774024515454267</v>
+        <v>0.4816228192065025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8317164893111836</v>
+        <v>0.8335641797299458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -3281,19 +3281,19 @@
         <v>46705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37590</v>
+        <v>37859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54882</v>
+        <v>54684</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6196518939633271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4987201039705413</v>
+        <v>0.5022847455396804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7281320953880537</v>
+        <v>0.7255084271218794</v>
       </c>
     </row>
     <row r="12">
@@ -3310,19 +3310,19 @@
         <v>6311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2975</v>
+        <v>2952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12057</v>
+        <v>11838</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1537235521634401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07246516132182203</v>
+        <v>0.07190723212560395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2936966791231348</v>
+        <v>0.2883644568685559</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -3331,19 +3331,19 @@
         <v>5470</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2117</v>
+        <v>2091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11032</v>
+        <v>10345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1593788826342181</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06168460340971318</v>
+        <v>0.06093734293644788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3214456074410296</v>
+        <v>0.3014170057531104</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3352,19 +3352,19 @@
         <v>11781</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5552</v>
+        <v>6487</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19147</v>
+        <v>20169</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1562986026862112</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0736603267936793</v>
+        <v>0.08606890116610103</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2540256590869082</v>
+        <v>0.2675840853282436</v>
       </c>
     </row>
     <row r="13">
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6002</v>
+        <v>6887</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05085448316538754</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1583914435403718</v>
+        <v>0.1817462719218208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6150</v>
+        <v>6517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03903861020011237</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2223777406537176</v>
+        <v>0.2356645795435865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -3498,19 +3498,19 @@
         <v>3007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7977</v>
+        <v>8160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04586931961326873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01450140248232998</v>
+        <v>0.01416586764515376</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1216883494943697</v>
+        <v>0.1244828629335138</v>
       </c>
     </row>
     <row r="15">
@@ -3527,19 +3527,19 @@
         <v>7211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3500</v>
+        <v>3462</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12277</v>
+        <v>12541</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1902987903926564</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09237086901333885</v>
+        <v>0.09136446823621557</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.323990489751581</v>
+        <v>0.3309620076032943</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -3548,19 +3548,19 @@
         <v>6699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2998</v>
+        <v>2389</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12231</v>
+        <v>12551</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2422168156186698</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1084000035914448</v>
+        <v>0.08639729648236949</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4422667141005952</v>
+        <v>0.4538299623848762</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -3569,19 +3569,19 @@
         <v>13910</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7993</v>
+        <v>7855</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21558</v>
+        <v>21638</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2122032106428854</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1219331277180987</v>
+        <v>0.1198363083183883</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.328886391375444</v>
+        <v>0.3300985171108088</v>
       </c>
     </row>
     <row r="16">
@@ -3598,19 +3598,19 @@
         <v>20592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14966</v>
+        <v>14335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26643</v>
+        <v>26317</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5434020431875111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3949395130045912</v>
+        <v>0.3783036671250736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7030892198432991</v>
+        <v>0.6944834800489904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3619,19 +3619,19 @@
         <v>12526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7007</v>
+        <v>7128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18656</v>
+        <v>18434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4529243258464682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2533655658081997</v>
+        <v>0.2577461406261311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.674611527196205</v>
+        <v>0.6665589475979928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -3640,19 +3640,19 @@
         <v>33117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25024</v>
+        <v>25129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41302</v>
+        <v>41363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.505229136277203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3817665486740346</v>
+        <v>0.3833667677151298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6300927773074265</v>
+        <v>0.6310198605582402</v>
       </c>
     </row>
     <row r="17">
@@ -3669,19 +3669,19 @@
         <v>8164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3954</v>
+        <v>4001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13975</v>
+        <v>13804</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.215444683254445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1043366936105558</v>
+        <v>0.105583768850239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3687902736143038</v>
+        <v>0.3642836086440209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3690,19 +3690,19 @@
         <v>7351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2880</v>
+        <v>3152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13096</v>
+        <v>13588</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2658202483347496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1041395166663554</v>
+        <v>0.1139698079023622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4735544945456351</v>
+        <v>0.4913377967062039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -3711,19 +3711,19 @@
         <v>15515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9184</v>
+        <v>8557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24014</v>
+        <v>23435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2366983334666428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1401123429345059</v>
+        <v>0.1305423172583353</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3663548679845816</v>
+        <v>0.3575240797023587</v>
       </c>
     </row>
     <row r="18">
@@ -3815,19 +3815,19 @@
         <v>5783</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1974</v>
+        <v>2026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12286</v>
+        <v>12792</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1569807993368663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05357719854601934</v>
+        <v>0.05500762443678429</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3335303825032046</v>
+        <v>0.3472719749597911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3849,19 +3849,19 @@
         <v>5783</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1791</v>
+        <v>1807</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12981</v>
+        <v>11495</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1025618924328409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03175906836566524</v>
+        <v>0.03205375021394569</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2302328657593062</v>
+        <v>0.2038778137734869</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>5324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1907</v>
+        <v>1747</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10487</v>
+        <v>10241</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1445421666708441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05177679994082921</v>
+        <v>0.04743429468412347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2846808736679288</v>
+        <v>0.278028337361169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -3899,19 +3899,19 @@
         <v>5335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1317</v>
+        <v>1927</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10783</v>
+        <v>11783</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2729349728838755</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06737516965986917</v>
+        <v>0.0985841558645623</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.551717765124688</v>
+        <v>0.6028896707783928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -3920,19 +3920,19 @@
         <v>10659</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5475</v>
+        <v>5405</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18168</v>
+        <v>17507</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1890507702578349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09711463852879468</v>
+        <v>0.09585785490864339</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3222439692801978</v>
+        <v>0.3105092657485818</v>
       </c>
     </row>
     <row r="21">
@@ -3949,19 +3949,19 @@
         <v>18537</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12274</v>
+        <v>12156</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25181</v>
+        <v>25195</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5032213653587908</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3332024400620505</v>
+        <v>0.3299912071952257</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6835853006226522</v>
+        <v>0.6839785002978058</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -3970,19 +3970,19 @@
         <v>11308</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6245</v>
+        <v>6030</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15926</v>
+        <v>15844</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.578579900814261</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3195381908029868</v>
+        <v>0.3085207226585395</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8148422870499535</v>
+        <v>0.8106351591498897</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -3991,19 +3991,19 @@
         <v>29845</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20678</v>
+        <v>21764</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37494</v>
+        <v>38091</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5293451278998053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3667522632193329</v>
+        <v>0.3860149282056621</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6650094837100902</v>
+        <v>0.6756056566577547</v>
       </c>
     </row>
     <row r="22">
@@ -4020,19 +4020,19 @@
         <v>7192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3119</v>
+        <v>2950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12878</v>
+        <v>12538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1952556686334987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08468421891340472</v>
+        <v>0.08007599395366861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3496151026175308</v>
+        <v>0.3403768963778993</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8594</v>
+        <v>8609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1484851263018635</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4396885825170878</v>
+        <v>0.4404925383713563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -4062,19 +4062,19 @@
         <v>10095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4896</v>
+        <v>4808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17618</v>
+        <v>17795</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.179042209409519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08683381900787676</v>
+        <v>0.0852802320123755</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3124824500748744</v>
+        <v>0.3156240671872242</v>
       </c>
     </row>
     <row r="23">
@@ -4166,19 +4166,19 @@
         <v>11809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5915</v>
+        <v>6403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19989</v>
+        <v>21590</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07419491363931734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03716245977017657</v>
+        <v>0.04023029022209431</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1255829854586116</v>
+        <v>0.1356456680004284</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4187,19 +4187,19 @@
         <v>5707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12974</v>
+        <v>12766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04950885043281895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01944404713353578</v>
+        <v>0.01910509668309983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1125572101176601</v>
+        <v>0.1107504990877602</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -4208,19 +4208,19 @@
         <v>17516</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10566</v>
+        <v>10446</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28054</v>
+        <v>28564</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06382614379230589</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03850144188452624</v>
+        <v>0.03806344979558253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1022221404703428</v>
+        <v>0.1040831017549966</v>
       </c>
     </row>
     <row r="25">
@@ -4237,19 +4237,19 @@
         <v>30111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20733</v>
+        <v>21883</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41160</v>
+        <v>41288</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1891809563192338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1302576749540266</v>
+        <v>0.1374863195832704</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2585978426683778</v>
+        <v>0.2594024932038521</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4258,19 +4258,19 @@
         <v>33808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23738</v>
+        <v>23994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45691</v>
+        <v>44912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2932936397310701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2059326223754747</v>
+        <v>0.2081522992770543</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.396379568390563</v>
+        <v>0.389626203211112</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -4279,19 +4279,19 @@
         <v>63919</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50585</v>
+        <v>50424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79160</v>
+        <v>79174</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2329109121012445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1843219239186351</v>
+        <v>0.1837378786719823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2884468098353684</v>
+        <v>0.2884973168563333</v>
       </c>
     </row>
     <row r="26">
@@ -4308,19 +4308,19 @@
         <v>87295</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75205</v>
+        <v>74430</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101397</v>
+        <v>99195</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5484535254436502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4724922017656953</v>
+        <v>0.4676235988979733</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6370518632573243</v>
+        <v>0.6232175015843318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -4329,19 +4329,19 @@
         <v>60032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48652</v>
+        <v>48532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71333</v>
+        <v>72131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5207934941262696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4220688218310071</v>
+        <v>0.4210296193627632</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.618835638131655</v>
+        <v>0.6257565244165598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -4350,19 +4350,19 @@
         <v>147328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130593</v>
+        <v>130542</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164687</v>
+        <v>163573</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5368356139001219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4758560800478353</v>
+        <v>0.4756702403509577</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6000911676632747</v>
+        <v>0.5960298161733518</v>
       </c>
     </row>
     <row r="27">
@@ -4379,19 +4379,19 @@
         <v>29950</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20040</v>
+        <v>20801</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40664</v>
+        <v>41929</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1881706045977986</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1259053474422036</v>
+        <v>0.1306867127944539</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2554801355637122</v>
+        <v>0.2634276539480166</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -4400,19 +4400,19 @@
         <v>15723</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8914</v>
+        <v>8291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25226</v>
+        <v>25281</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1364040157098413</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07732725955817572</v>
+        <v>0.07192435521967006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2188400442422603</v>
+        <v>0.2193227966917299</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>41</v>
@@ -4421,19 +4421,19 @@
         <v>45674</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33474</v>
+        <v>33910</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>59863</v>
+        <v>59037</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1664273302063277</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1219745135895258</v>
+        <v>0.1235610087439675</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2181301084773401</v>
+        <v>0.2151203343638168</v>
       </c>
     </row>
     <row r="28">
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6347</v>
+        <v>6350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03386076914259835</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1077817226066136</v>
+        <v>0.1078393934333914</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6043</v>
+        <v>6104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01407013634931811</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04264160068798294</v>
+        <v>0.04307417562417625</v>
       </c>
     </row>
     <row r="5">
@@ -4828,19 +4828,19 @@
         <v>12502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7381</v>
+        <v>7391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19278</v>
+        <v>19190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2122929112917479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1253461545116998</v>
+        <v>0.125514586177966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3273715199619644</v>
+        <v>0.3258804988467829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -4849,19 +4849,19 @@
         <v>19426</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14483</v>
+        <v>13819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26223</v>
+        <v>25910</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2345309416417316</v>
+        <v>0.2345309416417315</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1748575989200873</v>
+        <v>0.1668328599024453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3165914959015246</v>
+        <v>0.3128059194524976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -4870,19 +4870,19 @@
         <v>31928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23966</v>
+        <v>25027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40062</v>
+        <v>41164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2252903919706104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1691114623946185</v>
+        <v>0.1765958444858469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2826900618216828</v>
+        <v>0.2904614445887322</v>
       </c>
     </row>
     <row r="6">
@@ -4899,19 +4899,19 @@
         <v>34772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27872</v>
+        <v>28376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41486</v>
+        <v>41085</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5904685373164459</v>
+        <v>0.5904685373164458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4733099826894911</v>
+        <v>0.4818710202884455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.704490871322037</v>
+        <v>0.6976853314391995</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -4920,19 +4920,19 @@
         <v>51300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44422</v>
+        <v>43799</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58024</v>
+        <v>57473</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6193453965115341</v>
+        <v>0.6193453965115342</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5363087401755003</v>
+        <v>0.5287764145316977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7005250018310142</v>
+        <v>0.6938659756797175</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>128</v>
@@ -4941,19 +4941,19 @@
         <v>86072</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76181</v>
+        <v>76811</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95837</v>
+        <v>94954</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6073462199865151</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5375547192212605</v>
+        <v>0.5419976092626217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6762496206271648</v>
+        <v>0.670021696561049</v>
       </c>
     </row>
     <row r="7">
@@ -4970,19 +4970,19 @@
         <v>9621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5349</v>
+        <v>5273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16301</v>
+        <v>15604</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.163377782249208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09082589659212917</v>
+        <v>0.08954321786482752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2768056361117214</v>
+        <v>0.264980567879136</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4991,19 +4991,19 @@
         <v>12103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7397</v>
+        <v>7399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17572</v>
+        <v>17424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1461236618467343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08930348850749634</v>
+        <v>0.08933338400219053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2121449664302703</v>
+        <v>0.2103590950375363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -5012,19 +5012,19 @@
         <v>21724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14930</v>
+        <v>15630</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29600</v>
+        <v>30008</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1532932516935563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1053511872526229</v>
+        <v>0.1102866600126928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2088643012855659</v>
+        <v>0.211747668489791</v>
       </c>
     </row>
     <row r="8">
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5316</v>
+        <v>5184</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0110962972159263</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0386002082629937</v>
+        <v>0.03764260056480338</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -5140,16 +5140,16 @@
         <v>1046</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6201</v>
+        <v>7023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01881030027856654</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007030659129961838</v>
+        <v>0.007030279376550048</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04167401616368093</v>
+        <v>0.0471998477255309</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -5158,19 +5158,19 @@
         <v>4327</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1863</v>
+        <v>1817</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8894</v>
+        <v>8580</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01510262013440557</v>
+        <v>0.01510262013440558</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006504022601012081</v>
+        <v>0.006343487499938831</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03104146128564172</v>
+        <v>0.02994738572797273</v>
       </c>
     </row>
     <row r="10">
@@ -5187,19 +5187,19 @@
         <v>30423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22063</v>
+        <v>22106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40256</v>
+        <v>40073</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2209158054005087</v>
+        <v>0.2209158054005086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.160212561589854</v>
+        <v>0.1605270587343046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2923258765700255</v>
+        <v>0.2909924596714569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5208,19 +5208,19 @@
         <v>31237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23814</v>
+        <v>24256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38562</v>
+        <v>39186</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2099198808416005</v>
+        <v>0.2099198808416004</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1600341883758516</v>
+        <v>0.1630076387276863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2591446463780898</v>
+        <v>0.2633428362774132</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -5229,19 +5229,19 @@
         <v>61659</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50934</v>
+        <v>50771</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73859</v>
+        <v>73155</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2152049929711517</v>
+        <v>0.2152049929711518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1777717910969658</v>
+        <v>0.1772022131383732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2577858854644986</v>
+        <v>0.2553283634577638</v>
       </c>
     </row>
     <row r="11">
@@ -5258,19 +5258,19 @@
         <v>79025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68290</v>
+        <v>69084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88282</v>
+        <v>90307</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5738489007387483</v>
+        <v>0.5738489007387482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.49589390547662</v>
+        <v>0.501658230821347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6410660405617674</v>
+        <v>0.655773789451802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -5279,19 +5279,19 @@
         <v>87333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77946</v>
+        <v>78222</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96531</v>
+        <v>96161</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5869017291695917</v>
+        <v>0.5869017291695916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5238209443478817</v>
+        <v>0.5256755550069987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.648719720166453</v>
+        <v>0.6462274119744436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>251</v>
@@ -5300,19 +5300,19 @@
         <v>166358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>150305</v>
+        <v>152799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177362</v>
+        <v>178238</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5806279809735916</v>
+        <v>0.5806279809735917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5245984408341173</v>
+        <v>0.5333036697409369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.619034140082888</v>
+        <v>0.6220907151464117</v>
       </c>
     </row>
     <row r="12">
@@ -5329,19 +5329,19 @@
         <v>26735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19786</v>
+        <v>19234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34968</v>
+        <v>35835</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1941389966448169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1436806364507418</v>
+        <v>0.1396706223678373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2539209409710343</v>
+        <v>0.2602198376691754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -5350,19 +5350,19 @@
         <v>27435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20864</v>
+        <v>20869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35364</v>
+        <v>35075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1843680897102414</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1402110226119489</v>
+        <v>0.1402482824388299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2376538727666886</v>
+        <v>0.2357157938769025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -5371,19 +5371,19 @@
         <v>54170</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44331</v>
+        <v>44535</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66433</v>
+        <v>65047</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1890644059208511</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.154725903380753</v>
+        <v>0.1554358560129876</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2318669280782771</v>
+        <v>0.2270296341732009</v>
       </c>
     </row>
     <row r="13">
@@ -5475,19 +5475,19 @@
         <v>6098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2607</v>
+        <v>2616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11843</v>
+        <v>11915</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03552805942134053</v>
+        <v>0.03552805942134054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01518692762085767</v>
+        <v>0.01524147608005272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06899985781909866</v>
+        <v>0.06942001929007842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -5496,19 +5496,19 @@
         <v>4605</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2014</v>
+        <v>2230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8985</v>
+        <v>8536</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03408576352524011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01490435013166539</v>
+        <v>0.0165056265352906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06649771245054092</v>
+        <v>0.06317451068765075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -5517,19 +5517,19 @@
         <v>10703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6267</v>
+        <v>6134</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18009</v>
+        <v>16555</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03489277778131752</v>
+        <v>0.0348927777813175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02043111151235766</v>
+        <v>0.01999746969659877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05870997510334254</v>
+        <v>0.05396877880709206</v>
       </c>
     </row>
     <row r="15">
@@ -5546,19 +5546,19 @@
         <v>45755</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35386</v>
+        <v>36351</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56440</v>
+        <v>56451</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2665798635284015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2061650190718011</v>
+        <v>0.2117863697754793</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3288293134758487</v>
+        <v>0.3288949588797521</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -5567,19 +5567,19 @@
         <v>33398</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26074</v>
+        <v>26934</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40843</v>
+        <v>41897</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2471879376814737</v>
+        <v>0.2471879376814738</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1929776892699717</v>
+        <v>0.1993477549129681</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3022844877147977</v>
+        <v>0.3100856309113893</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>118</v>
@@ -5588,19 +5588,19 @@
         <v>79154</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66494</v>
+        <v>66905</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91655</v>
+        <v>93856</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2580383884479071</v>
+        <v>0.2580383884479069</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2167678592606115</v>
+        <v>0.2181093110085459</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2987941306884236</v>
+        <v>0.3059664614642665</v>
       </c>
     </row>
     <row r="16">
@@ -5617,19 +5617,19 @@
         <v>83769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72087</v>
+        <v>72835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94420</v>
+        <v>94911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4880563042109272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4199961955569701</v>
+        <v>0.4243515208035676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5501091769946134</v>
+        <v>0.5529701241996768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -5638,19 +5638,19 @@
         <v>70066</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61027</v>
+        <v>61140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78248</v>
+        <v>78563</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5185705076490731</v>
+        <v>0.5185705076490732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4516733310625639</v>
+        <v>0.4525097655378602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5791325703387735</v>
+        <v>0.5814630554013049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -5659,19 +5659,19 @@
         <v>153835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>140741</v>
+        <v>139581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168469</v>
+        <v>167492</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5014967592913263</v>
+        <v>0.5014967592913262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4588114822849086</v>
+        <v>0.4550315906230276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5492032423313234</v>
+        <v>0.5460195444316588</v>
       </c>
     </row>
     <row r="17">
@@ -5688,19 +5688,19 @@
         <v>36016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27534</v>
+        <v>27486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47021</v>
+        <v>47370</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2098357728393308</v>
+        <v>0.2098357728393309</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1604181613529521</v>
+        <v>0.1601379442142464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2739545378507044</v>
+        <v>0.2759902051970837</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -5709,19 +5709,19 @@
         <v>27044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20660</v>
+        <v>20162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35165</v>
+        <v>34580</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2001557911442131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1529058096581061</v>
+        <v>0.1492207491674758</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2602628872703488</v>
+        <v>0.2559367364836604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -5730,19 +5730,19 @@
         <v>63059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51250</v>
+        <v>53171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75398</v>
+        <v>77375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2055720744794493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1670746687285676</v>
+        <v>0.1733374373793731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2457967856873959</v>
+        <v>0.2522403264341603</v>
       </c>
     </row>
     <row r="18">
@@ -5834,19 +5834,19 @@
         <v>10009</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5431</v>
+        <v>4841</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17061</v>
+        <v>16712</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0563359960318451</v>
+        <v>0.05633599603184512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03056711113036584</v>
+        <v>0.02724848065039797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09602824507477295</v>
+        <v>0.09406737685755912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5855,19 +5855,19 @@
         <v>9919</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6061</v>
+        <v>5844</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15628</v>
+        <v>15858</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07189766651701353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04392881097542582</v>
+        <v>0.04235988932056651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1132777501055359</v>
+        <v>0.1149431227876294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -5876,19 +5876,19 @@
         <v>19928</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13445</v>
+        <v>13215</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27828</v>
+        <v>27672</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06313818693255412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04259737554355002</v>
+        <v>0.04186897462889946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08816644108297483</v>
+        <v>0.08767106354180994</v>
       </c>
     </row>
     <row r="20">
@@ -5905,19 +5905,19 @@
         <v>45899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35847</v>
+        <v>34885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57408</v>
+        <v>56780</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2583436151444796</v>
+        <v>0.2583436151444797</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2017662792133851</v>
+        <v>0.1963513241486503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3231238498077845</v>
+        <v>0.3195897361005046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -5926,19 +5926,19 @@
         <v>47320</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38902</v>
+        <v>38973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55703</v>
+        <v>56028</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.342983543804585</v>
+        <v>0.3429835438045851</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2819708988786172</v>
+        <v>0.2824797057026822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4037451611133261</v>
+        <v>0.4061012317024743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>136</v>
@@ -5947,19 +5947,19 @@
         <v>93219</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80236</v>
+        <v>79939</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107911</v>
+        <v>108536</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2953407327172463</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2542091112460034</v>
+        <v>0.2532669010434709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.341891269623447</v>
+        <v>0.3438697101774857</v>
       </c>
     </row>
     <row r="21">
@@ -5976,19 +5976,19 @@
         <v>76251</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63884</v>
+        <v>65727</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88662</v>
+        <v>88793</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4291869431624677</v>
+        <v>0.429186943162468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3595774321996277</v>
+        <v>0.3699479800446439</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4990414352048272</v>
+        <v>0.4997777322387197</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>91</v>
@@ -5997,19 +5997,19 @@
         <v>53759</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>45091</v>
+        <v>45123</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62570</v>
+        <v>63134</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3896527582408528</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3268247975543018</v>
+        <v>0.3270573293269211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4535162552030595</v>
+        <v>0.45760895807314</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>181</v>
@@ -6018,19 +6018,19 @@
         <v>130010</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>115076</v>
+        <v>116176</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>144070</v>
+        <v>144294</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4119060816253301</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3645901181439619</v>
+        <v>0.3680754194457965</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4564507473584886</v>
+        <v>0.4571596285637556</v>
       </c>
     </row>
     <row r="22">
@@ -6047,19 +6047,19 @@
         <v>45506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35033</v>
+        <v>35877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56883</v>
+        <v>57224</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2561334456612073</v>
+        <v>0.2561334456612074</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.197183894326681</v>
+        <v>0.2019337578853279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3201694596241381</v>
+        <v>0.3220875612864223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6068,19 +6068,19 @@
         <v>26968</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20409</v>
+        <v>19494</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34456</v>
+        <v>34329</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1954660314375488</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1479286566262515</v>
+        <v>0.1412954880427697</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2497399998234912</v>
+        <v>0.2488243203990761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -6089,19 +6089,19 @@
         <v>72474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60106</v>
+        <v>60068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86039</v>
+        <v>86157</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2296149987248694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1904301768339532</v>
+        <v>0.1903104985319012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.27259505873204</v>
+        <v>0.2729685168952167</v>
       </c>
     </row>
     <row r="23">
@@ -6193,19 +6193,19 @@
         <v>19629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12974</v>
+        <v>13110</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29737</v>
+        <v>29393</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03595694752517609</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02376589566164122</v>
+        <v>0.0240152432886219</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05447291851705607</v>
+        <v>0.05384244154052915</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -6214,19 +6214,19 @@
         <v>17324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11859</v>
+        <v>11877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24873</v>
+        <v>24348</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0343243092295894</v>
+        <v>0.03432430922958939</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02349675868203862</v>
+        <v>0.02353182754888181</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04928069309504027</v>
+        <v>0.04824103048438735</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>53</v>
@@ -6235,19 +6235,19 @@
         <v>36953</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27415</v>
+        <v>28667</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49289</v>
+        <v>48880</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03517263200651177</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02609439773556703</v>
+        <v>0.02728598956938568</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04691431422425629</v>
+        <v>0.04652522318243057</v>
       </c>
     </row>
     <row r="25">
@@ -6264,19 +6264,19 @@
         <v>134578</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118239</v>
+        <v>115147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153737</v>
+        <v>152395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2465238996998541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2165947643341556</v>
+        <v>0.2109309429788438</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2816215268161628</v>
+        <v>0.279161498130339</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>232</v>
@@ -6285,19 +6285,19 @@
         <v>131381</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117098</v>
+        <v>117296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146573</v>
+        <v>146991</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.260309363128915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2320094938193729</v>
+        <v>0.2324011191325676</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2904097739466716</v>
+        <v>0.2912375851078659</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>395</v>
@@ -6306,19 +6306,19 @@
         <v>265959</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241145</v>
+        <v>245880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>290221</v>
+        <v>293453</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2531464032443433</v>
+        <v>0.2531464032443434</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2295274630155681</v>
+        <v>0.234035038057611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2762399966161062</v>
+        <v>0.279315950549424</v>
       </c>
     </row>
     <row r="26">
@@ -6335,19 +6335,19 @@
         <v>273817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>253138</v>
+        <v>252788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>294948</v>
+        <v>293752</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5015869731014113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4637061232389393</v>
+        <v>0.4630655967384792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5402955145907311</v>
+        <v>0.5381054031587269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>442</v>
@@ -6356,19 +6356,19 @@
         <v>262458</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>245047</v>
+        <v>246257</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279427</v>
+        <v>278733</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5200145399783566</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4855179355316944</v>
+        <v>0.4879151121297849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5536359254449333</v>
+        <v>0.5522611429209072</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>791</v>
@@ -6377,19 +6377,19 @@
         <v>536274</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>507613</v>
+        <v>510038</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>563266</v>
+        <v>562740</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.510439532000637</v>
+        <v>0.5104395320006371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4831592667661024</v>
+        <v>0.4854674226724683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5361306172920666</v>
+        <v>0.5356306030099518</v>
       </c>
     </row>
     <row r="27">
@@ -6406,19 +6406,19 @@
         <v>117878</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>101404</v>
+        <v>101109</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>136063</v>
+        <v>136322</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2159321796735586</v>
+        <v>0.2159321796735587</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1857544433895372</v>
+        <v>0.1852148614925374</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.249245679443021</v>
+        <v>0.2497187248480274</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>157</v>
@@ -6427,19 +6427,19 @@
         <v>93549</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>80061</v>
+        <v>81489</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>106848</v>
+        <v>108589</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1853517876631391</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1586272686754825</v>
+        <v>0.1614571592635096</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2117012709385891</v>
+        <v>0.2151508154750416</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>303</v>
@@ -6448,19 +6448,19 @@
         <v>211427</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>190778</v>
+        <v>190223</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>234231</v>
+        <v>234396</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2012414327485079</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1815871946528231</v>
+        <v>0.1810593182392409</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2229469475924763</v>
+        <v>0.2231040163227585</v>
       </c>
     </row>
     <row r="28">
